--- a/JobScraping/AllJobs.xlsx
+++ b/JobScraping/AllJobs.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <x:si>
-    <x:t>Accenture Industrial Software Solutions SA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ejobs.ro/company/accenture-industrial-software-solutions-sa/6420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 ianuarie</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Flightradar24</x:t>
   </x:si>
@@ -36,181 +27,367 @@
     <x:t>Expiră în 1 zi</x:t>
   </x:si>
   <x:si>
-    <x:t>Vertiv Group Corp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ejobs.ro/company/vertiv-group-corp/263828</x:t>
+    <x:t>Goodyear Operations Romania S.R.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ejobs.ro/company/goodyear-operations-romania-s.r.l./263484</x:t>
   </x:si>
   <x:si>
     <x:t>12 ianuarie</x:t>
   </x:si>
   <x:si>
-    <x:t>Emerson Electric Co</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ejobs.ro/company/emerson-electric-co/41227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 ianuarie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BigBrother</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ejobs.ro/company/bigbrother/311645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04 ianuarie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C++ Software Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ro.linkedin.com/jobs/view/c%2B%2B-software-engineer-at-micro-focus-2365162228?refId=b0e9c73b-fbcd-4a53-9f7a-4173dcaeaa5c&amp;trackingId=vmVFBcTYLjck9m0rVN2XCA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Micro Focus</x:t>
+    <x:t>EY Romania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ejobs.ro/company/ey-romania/58523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Veriint Systems Romania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ejobs.ro/company/veriint-systems-romania/298172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07 ianuarie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAKITA EU SRL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ejobs.ro/company/makita-eu-srl/32151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ubisoft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ejobs.ro/company/ubisoft/18267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sparkware Technologies S.R.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ejobs.ro/company/sparkware-technologies-s.r.l./256292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expiră în 2 zile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALTEN TECHNO - Engineering Division</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ejobs.ro/company/alten-techno---engineering-division/19622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Backend Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/senior-backend-engineer-at-bolt-2358587370?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=T7uTCVkQO%2FFzwebba1uOuA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bolt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 minutes ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Software Engineer - Commerce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/senior-software-engineer-commerce-at-bolt-2358587363?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=fYGFBDP2fWNJH2hfddyA9Q%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior c++ Engineer IT SecOPs (Europe Remote)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/senior-c%2B%2B-engineer-it-secops-europe-remote-at-crowdstrike-2365196786?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=9QWJz0qtcn4X6uCB8Ahquw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CrowdStrike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 hours ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sr. Software Engineer, Windows Kernel (Remote)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/sr-software-engineer-windows-kernel-remote-at-crowdstrike-2366501149?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=2bzGBbA0TU6uwcNT%2B3deog%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sr. C++ Software Engineer - Data Science Project (Remote)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/sr-c%2B%2B-software-engineer-data-science-project-remote-at-crowdstrike-2365197687?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=ho7Fpt7%2FvOPyPvh1FqUNSQ%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/sr-c%2B%2B-software-engineer-data-science-project-remote-at-crowdstrike-2365199455?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=SKDgwb6JJ%2BbAKUKvKNvI5w%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Threat Analyst (Remote)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/threat-analyst-remote-at-crowdstrike-2366501134?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=kVucXps%2FEQrQlD0qfx24cQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/threat-analyst-remote-at-crowdstrike-2365196771?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=9f7ygGK%2FMAq6Baz0qamKqw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Information Technology Recruiter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/senior-information-technology-recruiter-at-phi-partners-2331634860?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=sGDbE9fMag96ZKUoRhNrdA%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phi Partners</x:t>
   </x:si>
   <x:si>
     <x:t>6 hours ago</x:t>
   </x:si>
   <x:si>
-    <x:t>Senior C++ Game Programmer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ro.linkedin.com/jobs/view/senior-c%2B%2B-game-programmer-at-gameloft-2377249792?refId=b0e9c73b-fbcd-4a53-9f7a-4173dcaeaa5c&amp;trackingId=u6qYiYfJoQWEnGLOfqFvBA%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gameloft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 hours ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R&amp;D Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ro.linkedin.com/jobs/view/r-d-engineer-at-synopsys-inc-2268826120?refId=b0e9c73b-fbcd-4a53-9f7a-4173dcaeaa5c&amp;trackingId=Motrkc8n6%2B8ST4piC3skYQ%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Synopsys Inc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 minutes ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Software Architect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ro.linkedin.com/jobs/view/senior-software-architect-at-synopsys-inc-2268826110?refId=b0e9c73b-fbcd-4a53-9f7a-4173dcaeaa5c&amp;trackingId=%2F%2BMnQ4G1aGZh7wjcbmD0hg%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 hours ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Angular/C# Developers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ro.linkedin.com/jobs/view/angular-c%23-developers-at-new-signature-2376666591?refId=b0e9c73b-fbcd-4a53-9f7a-4173dcaeaa5c&amp;trackingId=tT%2FNv36RVTSXg6kJbwfRyg%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Signature</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 hours ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Team Leader, Smart&amp;Connected Development</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ro.linkedin.com/jobs/view/team-leader-smart-connected-development-at-steelcase-2376859331?refId=b0e9c73b-fbcd-4a53-9f7a-4173dcaeaa5c&amp;trackingId=YRcnog45O0iNZ6BKGBz9tw%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steelcase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 hours ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Software Maintenance Engineer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ro.linkedin.com/jobs/view/software-maintenance-engineer-at-micro-focus-2365149996?refId=b0e9c73b-fbcd-4a53-9f7a-4173dcaeaa5c&amp;trackingId=azIlg9YE2q37nZxEIxtZQw%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 hours ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CTO/ Senior Developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/cto-senior-developer?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=1&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cresmart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MECANIC, ELECTROMECANIC, ELECTRICIAN CAMIOANE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/mecanic-electromecanic-electrician-camioane-4?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=2&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SCANIA ROMANIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(Senior) SAP ABAP Developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/senior-sap-abap-developer-2?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=3&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axians Infoma Romania SRL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sofer profesionist - zona Turda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/sofer-profesionist-zona-turda-9?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=4&amp;list=20</x:t>
+    <x:t>Forensic Technology Consultant (Cybercrime)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/forensic-technology-consultant-cybercrime-at-ey-2369293263?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=4%2BK4R1O7%2Bl%2FCvmi0jhI8ew%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C/C++ Linux Software Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/c-c%2B%2B-linux-software-engineer-at-keysight-technologies-2377506389?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=F0mvnutu4idbC1xrKObcbw%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keysight Technologies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fullstack developer with Go</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/fullstack-developer-with-go-at-keysight-technologies-2377502903?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=%2BPesAbujyLFXTEyr7%2BwiEg%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Development Engineer - Amazon Devices</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365174340?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=3JBI%2B6ptyo5ivptOaAk9hQ%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amazon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365170827?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=pQBrbhSUuzPvxzvuf5eDzg%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365172489?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=%2Bjc%2FfYXiDt3Ntc%2BOKCJ6fA%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365177004?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=JYeA%2BJvZJOoKzrK51fohyg%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365174337?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=qF6PnuaY4mWjN0uVtsGZdg%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Applied Scientist - Amazon Devices</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/applied-scientist-amazon-devices-at-amazon-2365175275?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=S9pI6CiTDUEtUxVrJgCAbQ%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365171675?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=PmXyAhECD%2FocG3RfpOn%2Ftw%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/applied-scientist-amazon-devices-at-amazon-2365176156?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=LJUnaFYICiFT3Fg7d3fqXA%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/applied-scientist-amazon-devices-at-amazon-2365172467?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=hhIqr5I3b3Z9ufzFp8my7w%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hardware Development Manager - Amazon Devices</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/hardware-development-manager-amazon-devices-at-amazon-2365176153?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=Xm1pSjjWxX6VYfipX0dBMQ%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365170794?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=0cdsKZ3tM3PmdgTqes6puw%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Software Development Engineer - Amazon Devices</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/senior-software-development-engineer-amazon-devices-at-amazon-2365174324?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=ViRiGmZQKNq8g90%2FJuTOeQ%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ro.linkedin.com/jobs/view/software-development-engineer-amazon-devices-at-amazon-2365170790?refId=4e8ab4d7-d8f0-4573-b958-00ad4bfd69fd&amp;trackingId=Vu9L7EIQGvhwZwhR4BZx9g%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_job-result-card_result-card_full-click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Automotive Embedded Engineer AUTOSAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/automotive-embedded-engineer-autosar?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=1&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tremend Software Consulting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Stack Developer - Special Projects</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/full-stack-developer-special-projects?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=2&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High-Tech Systems &amp; Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Administrator cantina socială</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/angajare-sef-cantina-sociala?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=3&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASOCIATIA SANSA TA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sofer tir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/sofer-tir-87?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=4&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stanislav&amp;Maya Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Technical accounting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/technical-accounting?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=5&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EULER HERMES SA BRUXELLES SUCURSALA BUCURESTI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embedded Software Engineer for Automotive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/embedded-software-engineer-for-automotive?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=6&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freelancer IT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PreSales / Support Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/presales-support-engineer-2?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=7&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POWER NET CONSULTING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>React Native Developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/react-native-developer-15?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=8&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Horse Games</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Technical Consultant Retail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/technical-consultant-retail-3?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=9&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smart ID Dynamics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solution Consultant Retail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/solution-consultant-retail-4?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=10&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Security Compliance Coordinator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/security-compliance-coordinator-1?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=11&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vodafone Shared Services Romania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Business Continuity Specialist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/business-continuity-specialist?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=12&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer - FPGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/software-engineer-fpga-1?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=13&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AVL Romania SRL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software Engineer - Linux</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/software-engineer-linux-1?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=14&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Control Engineer - Electric Dynos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/control-engineer-electric-dynos-2?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=15&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASP .NET C sharp Web Developer (junior, medior)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/asp-net-c-sharp-web-developer-junior-medior-1?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=16&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hallmark Cards Continental Europe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reprezentant comercial tehnic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/reprezentant-comercial-tehnic-23?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=17&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALBERT BERNER SRL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager magazin online</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/administrator-magazin-online-43?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=18&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SC SIBELLO ACTIVE TRADE SRL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sofer transport intern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/sofer-transport-intern-7?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=19&amp;list=20</x:t>
   </x:si>
   <x:si>
     <x:t>Ahead Logistics SRL</x:t>
   </x:si>
   <x:si>
-    <x:t>Database Architect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/database-architect-2?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=5&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Scientist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/data-scientist-55?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=6&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Backend technological leader or PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/backend-technological-leader-or-pm?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=7&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sofer Profesionist Cluj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/sofer-profesionist-cluj?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=8&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mateco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Application Security &amp; Vulnerability Analyst</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/application-security-vulnerability-analyst-cluj?rid=1fb2c9a6-495b-484b-a1c9-4170359fda35%3AAPAb7ISfpXfg8wPRccELUZPiiEcicQ5zPA%3D%3D&amp;st=gts&amp;pos=9&amp;list=20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Banca Transilvania</x:t>
+    <x:t>C Sharp Developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bestjobs.eu/ro/loc-de-munca/c-sharp-developer?rid=c34715e2-c307-4765-85f4-6015fa72decf%3AAPAb7ITxWxcH9IdwZe5Is2s00aQ42wmcTg%3D%3D&amp;st=gts&amp;pos=20&amp;list=20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Societe Generale European Business Services</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -561,7 +738,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C5"/>
+  <x:dimension ref="A1:C10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -597,29 +774,84 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -636,7 +868,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D7"/>
+  <x:dimension ref="A1:D25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -644,55 +876,55 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>29</x:v>
@@ -700,44 +932,296 @@
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>40</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -754,7 +1238,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C9"/>
+  <x:dimension ref="A1:C20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -762,101 +1246,222 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
